--- a/src/storage/AGRUPADOR RP.xlsx
+++ b/src/storage/AGRUPADOR RP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\volcado_apg\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\batch alza\src\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B1AF65-DAFC-4F9C-9DA5-D6B6C7F8061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED541E-6221-47FC-9269-752A9B30914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B95BAAF8-22D4-48BD-8CB8-71DD884B33A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B95BAAF8-22D4-48BD-8CB8-71DD884B33A4}"/>
   </bookViews>
   <sheets>
     <sheet name="AGRUPADOR DE CAJAS" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
   <si>
     <t>3KG GRANEL SAN LUCAR-M</t>
   </si>
@@ -368,6 +368,54 @@
   </si>
   <si>
     <t>4.4OZ C/E BERRY FRESH+18MM-M</t>
+  </si>
+  <si>
+    <t>4.4OZ C/E SAN LUCAR UK ANUSAYA-A</t>
+  </si>
+  <si>
+    <t>125 GRS C/E BERRY FRESH+20MM-M</t>
+  </si>
+  <si>
+    <t>125 GRS C/E BERRY FRESH+22MM-M</t>
+  </si>
+  <si>
+    <t>125 GRS C/E BERRY FRESH+24MM-M</t>
+  </si>
+  <si>
+    <t>3KG CANASTILLA SL-A</t>
+  </si>
+  <si>
+    <t>3KG CANASTILLA SL-M</t>
+  </si>
+  <si>
+    <t>125 GRS C/E SAN LUCAR+22MM-M</t>
+  </si>
+  <si>
+    <t>125 GRS C/E SAN LUCAR+24MM-M</t>
+  </si>
+  <si>
+    <t>125 GRS C/E SAN LUCAR+20MM-M</t>
+  </si>
+  <si>
+    <t>12x7OZ PS CUP-M</t>
+  </si>
+  <si>
+    <t>3KG GRANEL-A</t>
+  </si>
+  <si>
+    <t>125 GRS C/E BERRY WORLD+18MM-M</t>
+  </si>
+  <si>
+    <t>125 GRS C/E BERRY WORLD+20MM-M</t>
+  </si>
+  <si>
+    <t>4.4OZ C/E SAN LUCAR CHINA</t>
+  </si>
+  <si>
+    <t>4.4OZ C/E BERRY WORLD CHINA</t>
+  </si>
+  <si>
+    <t>12x7OZ PS CUP</t>
   </si>
 </sst>
 </file>
@@ -485,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -508,11 +556,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -538,6 +597,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB4FF63-BBBD-41A3-85B8-6BAEAC42CFFE}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,6 +1405,48 @@
         <v>1.03</v>
       </c>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="23">
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1351,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5934FC-6EA2-4DD6-93FA-54FE395EEDC4}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,6 +1798,111 @@
       </c>
       <c r="B42" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="22"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
